--- a/User_Data/ABS/Full_Sheets/310101.xlsx
+++ b/User_Data/ABS/Full_Sheets/310101.xlsx
@@ -17,47 +17,47 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2133244X">Data1!$B$1:$B$10,Data1!$B$11:$B$185</definedName>
-    <definedName name="A2133244X_Data">Data1!$B$11:$B$185</definedName>
-    <definedName name="A2133244X_Latest">Data1!$B$185</definedName>
-    <definedName name="A2133245A">Data1!$C$1:$C$10,Data1!$C$11:$C$185</definedName>
-    <definedName name="A2133245A_Data">Data1!$C$11:$C$185</definedName>
-    <definedName name="A2133245A_Latest">Data1!$C$185</definedName>
-    <definedName name="A2133246C">Data1!$E$1:$E$10,Data1!$E$11:$E$185</definedName>
-    <definedName name="A2133246C_Data">Data1!$E$11:$E$185</definedName>
-    <definedName name="A2133246C_Latest">Data1!$E$185</definedName>
-    <definedName name="A2133247F">Data1!$F$1:$F$10,Data1!$F$11:$F$185</definedName>
-    <definedName name="A2133247F_Data">Data1!$F$11:$F$185</definedName>
-    <definedName name="A2133247F_Latest">Data1!$F$185</definedName>
-    <definedName name="A2133248J">Data1!$G$1:$G$10,Data1!$G$11:$G$185</definedName>
-    <definedName name="A2133248J_Data">Data1!$G$11:$G$185</definedName>
-    <definedName name="A2133248J_Latest">Data1!$G$185</definedName>
-    <definedName name="A2133249K">Data1!$H$1:$H$10,Data1!$H$11:$H$185</definedName>
-    <definedName name="A2133249K_Data">Data1!$H$11:$H$185</definedName>
-    <definedName name="A2133249K_Latest">Data1!$H$185</definedName>
-    <definedName name="A2133250V">Data1!$J$1:$J$10,Data1!$J$11:$J$185</definedName>
-    <definedName name="A2133250V_Data">Data1!$J$11:$J$185</definedName>
-    <definedName name="A2133250V_Latest">Data1!$J$185</definedName>
-    <definedName name="A2133251W">Data1!$L$1:$L$10,Data1!$L$11:$L$185</definedName>
-    <definedName name="A2133251W_Data">Data1!$L$11:$L$185</definedName>
-    <definedName name="A2133251W_Latest">Data1!$L$185</definedName>
-    <definedName name="A2133252X">Data1!$D$1:$D$10,Data1!$D$11:$D$185</definedName>
-    <definedName name="A2133252X_Data">Data1!$D$11:$D$185</definedName>
-    <definedName name="A2133252X_Latest">Data1!$D$185</definedName>
-    <definedName name="A2133253A">Data1!$I$1:$I$10,Data1!$I$11:$I$185</definedName>
-    <definedName name="A2133253A_Data">Data1!$I$11:$I$185</definedName>
-    <definedName name="A2133253A_Latest">Data1!$I$185</definedName>
-    <definedName name="A2133254C">Data1!$K$1:$K$10,Data1!$K$11:$K$185</definedName>
-    <definedName name="A2133254C_Data">Data1!$K$11:$K$185</definedName>
-    <definedName name="A2133254C_Latest">Data1!$K$185</definedName>
-    <definedName name="A2133255F">Data1!$M$1:$M$10,Data1!$M$11:$M$185</definedName>
-    <definedName name="A2133255F_Data">Data1!$M$11:$M$185</definedName>
-    <definedName name="A2133255F_Latest">Data1!$M$185</definedName>
-    <definedName name="A2133256J">Data1!$N$1:$N$10,Data1!$N$11:$N$185</definedName>
-    <definedName name="A2133256J_Data">Data1!$N$11:$N$185</definedName>
-    <definedName name="A2133256J_Latest">Data1!$N$185</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$185</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$185</definedName>
+    <definedName name="A2133244X">Data1!$B$1:$B$10,Data1!$B$11:$B$186</definedName>
+    <definedName name="A2133244X_Data">Data1!$B$11:$B$186</definedName>
+    <definedName name="A2133244X_Latest">Data1!$B$186</definedName>
+    <definedName name="A2133245A">Data1!$C$1:$C$10,Data1!$C$11:$C$186</definedName>
+    <definedName name="A2133245A_Data">Data1!$C$11:$C$186</definedName>
+    <definedName name="A2133245A_Latest">Data1!$C$186</definedName>
+    <definedName name="A2133246C">Data1!$E$1:$E$10,Data1!$E$11:$E$186</definedName>
+    <definedName name="A2133246C_Data">Data1!$E$11:$E$186</definedName>
+    <definedName name="A2133246C_Latest">Data1!$E$186</definedName>
+    <definedName name="A2133247F">Data1!$F$1:$F$10,Data1!$F$11:$F$186</definedName>
+    <definedName name="A2133247F_Data">Data1!$F$11:$F$186</definedName>
+    <definedName name="A2133247F_Latest">Data1!$F$186</definedName>
+    <definedName name="A2133248J">Data1!$G$1:$G$10,Data1!$G$11:$G$186</definedName>
+    <definedName name="A2133248J_Data">Data1!$G$11:$G$186</definedName>
+    <definedName name="A2133248J_Latest">Data1!$G$186</definedName>
+    <definedName name="A2133249K">Data1!$H$1:$H$10,Data1!$H$11:$H$186</definedName>
+    <definedName name="A2133249K_Data">Data1!$H$11:$H$186</definedName>
+    <definedName name="A2133249K_Latest">Data1!$H$186</definedName>
+    <definedName name="A2133250V">Data1!$J$1:$J$10,Data1!$J$11:$J$186</definedName>
+    <definedName name="A2133250V_Data">Data1!$J$11:$J$186</definedName>
+    <definedName name="A2133250V_Latest">Data1!$J$186</definedName>
+    <definedName name="A2133251W">Data1!$L$1:$L$10,Data1!$L$11:$L$186</definedName>
+    <definedName name="A2133251W_Data">Data1!$L$11:$L$186</definedName>
+    <definedName name="A2133251W_Latest">Data1!$L$186</definedName>
+    <definedName name="A2133252X">Data1!$D$1:$D$10,Data1!$D$11:$D$186</definedName>
+    <definedName name="A2133252X_Data">Data1!$D$11:$D$186</definedName>
+    <definedName name="A2133252X_Latest">Data1!$D$186</definedName>
+    <definedName name="A2133253A">Data1!$I$1:$I$10,Data1!$I$11:$I$186</definedName>
+    <definedName name="A2133253A_Data">Data1!$I$11:$I$186</definedName>
+    <definedName name="A2133253A_Latest">Data1!$I$186</definedName>
+    <definedName name="A2133254C">Data1!$K$1:$K$10,Data1!$K$11:$K$186</definedName>
+    <definedName name="A2133254C_Data">Data1!$K$11:$K$186</definedName>
+    <definedName name="A2133254C_Latest">Data1!$K$186</definedName>
+    <definedName name="A2133255F">Data1!$M$1:$M$10,Data1!$M$11:$M$186</definedName>
+    <definedName name="A2133255F_Data">Data1!$M$11:$M$186</definedName>
+    <definedName name="A2133255F_Latest">Data1!$M$186</definedName>
+    <definedName name="A2133256J">Data1!$N$1:$N$10,Data1!$N$11:$N$186</definedName>
+    <definedName name="A2133256J_Data">Data1!$N$11:$N$186</definedName>
+    <definedName name="A2133256J_Latest">Data1!$N$186</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$186</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$186</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2402,6 +2402,32 @@
       </text>
     </comment>
     <comment ref="J185" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I186" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J186" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3293,10 +3319,10 @@
         <v>29738</v>
       </c>
       <c r="G12" s="11">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="H12" s="12">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>22</v>
@@ -3325,10 +3351,10 @@
         <v>29738</v>
       </c>
       <c r="G13" s="11">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="H13" s="12">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>22</v>
@@ -3357,10 +3383,10 @@
         <v>29738</v>
       </c>
       <c r="G14" s="11">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="H14" s="12">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>22</v>
@@ -3389,10 +3415,10 @@
         <v>29738</v>
       </c>
       <c r="G15" s="11">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="H15" s="12">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>22</v>
@@ -3421,10 +3447,10 @@
         <v>29738</v>
       </c>
       <c r="G16" s="11">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="H16" s="12">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>22</v>
@@ -3453,10 +3479,10 @@
         <v>29738</v>
       </c>
       <c r="G17" s="11">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="H17" s="12">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>22</v>
@@ -3485,10 +3511,10 @@
         <v>29738</v>
       </c>
       <c r="G18" s="11">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="H18" s="12">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>22</v>
@@ -3517,10 +3543,10 @@
         <v>29738</v>
       </c>
       <c r="G19" s="11">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="H19" s="12">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I19" s="22" t="s">
         <v>22</v>
@@ -3549,10 +3575,10 @@
         <v>29738</v>
       </c>
       <c r="G20" s="11">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="H20" s="12">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I20" s="22" t="s">
         <v>22</v>
@@ -3581,10 +3607,10 @@
         <v>29738</v>
       </c>
       <c r="G21" s="11">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="H21" s="12">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I21" s="22" t="s">
         <v>22</v>
@@ -3613,10 +3639,10 @@
         <v>29738</v>
       </c>
       <c r="G22" s="11">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="H22" s="12">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I22" s="22" t="s">
         <v>22</v>
@@ -3645,10 +3671,10 @@
         <v>29738</v>
       </c>
       <c r="G23" s="11">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="H23" s="12">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I23" s="22" t="s">
         <v>22</v>
@@ -3677,10 +3703,10 @@
         <v>29738</v>
       </c>
       <c r="G24" s="11">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="H24" s="12">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>39</v>
@@ -3728,7 +3754,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N185"/>
+  <dimension ref="A1:N186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -4052,43 +4078,43 @@
         <v>19</v>
       </c>
       <c r="B8" s="6">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="C8" s="6">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="D8" s="6">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="E8" s="6">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="F8" s="6">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="G8" s="6">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="H8" s="6">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="I8" s="6">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="J8" s="6">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="K8" s="6">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="L8" s="6">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="M8" s="6">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="N8" s="6">
-        <v>45627</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -4096,43 +4122,43 @@
         <v>20</v>
       </c>
       <c r="B9" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C9" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D9" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E9" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F9" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G9" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H9" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I9" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J9" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K9" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L9" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M9" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N9" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -11300,13 +11326,13 @@
         <v>45170</v>
       </c>
       <c r="B180" s="9">
-        <v>74.7</v>
+        <v>73.7</v>
       </c>
       <c r="C180" s="9">
-        <v>47.2</v>
+        <v>47.7</v>
       </c>
       <c r="D180" s="9">
-        <v>27.4</v>
+        <v>26</v>
       </c>
       <c r="E180" s="9">
         <v>86.9</v>
@@ -11326,10 +11352,10 @@
         <v>145.19999999999999</v>
       </c>
       <c r="L180" s="9">
-        <v>26832.5</v>
+        <v>26831.1</v>
       </c>
       <c r="M180" s="9">
-        <v>663.2</v>
+        <v>661.8</v>
       </c>
       <c r="N180" s="10">
         <v>2.5299999999999998</v>
@@ -11340,13 +11366,13 @@
         <v>45261</v>
       </c>
       <c r="B181" s="9">
-        <v>66.3</v>
+        <v>71.3</v>
       </c>
       <c r="C181" s="9">
-        <v>44.2</v>
+        <v>45.2</v>
       </c>
       <c r="D181" s="9">
-        <v>22.1</v>
+        <v>26.1</v>
       </c>
       <c r="E181" s="9">
         <v>105.7</v>
@@ -11366,13 +11392,13 @@
         <v>99.5</v>
       </c>
       <c r="L181" s="9">
-        <v>26954.1</v>
+        <v>26956.7</v>
       </c>
       <c r="M181" s="9">
-        <v>633.79999999999995</v>
+        <v>636.4</v>
       </c>
       <c r="N181" s="10">
-        <v>2.41</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
@@ -11380,13 +11406,13 @@
         <v>45352</v>
       </c>
       <c r="B182" s="9">
-        <v>76</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="C182" s="9">
-        <v>45.1</v>
+        <v>43.9</v>
       </c>
       <c r="D182" s="9">
-        <v>30.8</v>
+        <v>28.2</v>
       </c>
       <c r="E182" s="9">
         <v>97.2</v>
@@ -11395,10 +11421,10 @@
         <v>97.2</v>
       </c>
       <c r="G182" s="9">
-        <v>185</v>
+        <v>185.4</v>
       </c>
       <c r="H182" s="9">
-        <v>56.3</v>
+        <v>56.7</v>
       </c>
       <c r="I182" s="9"/>
       <c r="J182" s="9"/>
@@ -11406,10 +11432,10 @@
         <v>128.69999999999999</v>
       </c>
       <c r="L182" s="9">
-        <v>27113.7</v>
+        <v>27113.5</v>
       </c>
       <c r="M182" s="9">
-        <v>599.4</v>
+        <v>599.20000000000005</v>
       </c>
       <c r="N182" s="10">
         <v>2.2599999999999998</v>
@@ -11420,13 +11446,13 @@
         <v>45444</v>
       </c>
       <c r="B183" s="9">
-        <v>72.099999999999994</v>
+        <v>73.2</v>
       </c>
       <c r="C183" s="9">
-        <v>46.1</v>
+        <v>48.2</v>
       </c>
       <c r="D183" s="9">
-        <v>26</v>
+        <v>24.9</v>
       </c>
       <c r="E183" s="9">
         <v>95</v>
@@ -11435,24 +11461,24 @@
         <v>95</v>
       </c>
       <c r="G183" s="9">
-        <v>120.1</v>
+        <v>120.3</v>
       </c>
       <c r="H183" s="9">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I183" s="9"/>
       <c r="J183" s="9"/>
       <c r="K183" s="9">
-        <v>57.1</v>
+        <v>55.3</v>
       </c>
       <c r="L183" s="9">
-        <v>27196.799999999999</v>
+        <v>27193.8</v>
       </c>
       <c r="M183" s="9">
-        <v>536.9</v>
+        <v>533.9</v>
       </c>
       <c r="N183" s="10">
-        <v>2.0099999999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
@@ -11475,24 +11501,24 @@
         <v>82.1</v>
       </c>
       <c r="G184" s="9">
-        <v>151.80000000000001</v>
+        <v>151.4</v>
       </c>
       <c r="H184" s="9">
-        <v>65</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="I184" s="9"/>
       <c r="J184" s="9"/>
       <c r="K184" s="9">
-        <v>86.8</v>
+        <v>84.5</v>
       </c>
       <c r="L184" s="9">
-        <v>27308.9</v>
+        <v>27303.5</v>
       </c>
       <c r="M184" s="9">
-        <v>476.3</v>
+        <v>472.4</v>
       </c>
       <c r="N184" s="10">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
@@ -11515,24 +11541,64 @@
         <v>103.5</v>
       </c>
       <c r="G185" s="9">
-        <v>138</v>
+        <v>136.6</v>
       </c>
       <c r="H185" s="9">
-        <v>70</v>
+        <v>70.5</v>
       </c>
       <c r="I185" s="9"/>
       <c r="J185" s="9"/>
       <c r="K185" s="9">
-        <v>68</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="L185" s="9">
-        <v>27400</v>
+        <v>27392.6</v>
       </c>
       <c r="M185" s="9">
-        <v>445.9</v>
+        <v>436</v>
       </c>
       <c r="N185" s="10">
-        <v>1.65</v>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A186" s="11">
+        <v>45717</v>
+      </c>
+      <c r="B186" s="9">
+        <v>78.3</v>
+      </c>
+      <c r="C186" s="9">
+        <v>44.1</v>
+      </c>
+      <c r="D186" s="9">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E186" s="9">
+        <v>90.2</v>
+      </c>
+      <c r="F186" s="9">
+        <v>90.2</v>
+      </c>
+      <c r="G186" s="9">
+        <v>170.1</v>
+      </c>
+      <c r="H186" s="9">
+        <v>60</v>
+      </c>
+      <c r="I186" s="9"/>
+      <c r="J186" s="9"/>
+      <c r="K186" s="9">
+        <v>110.1</v>
+      </c>
+      <c r="L186" s="9">
+        <v>27536.9</v>
+      </c>
+      <c r="M186" s="9">
+        <v>423.4</v>
+      </c>
+      <c r="N186" s="10">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>
